--- a/outputs/complete_lists/Older Adults/OA S009.xlsx
+++ b/outputs/complete_lists/Older Adults/OA S009.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amuller\Desktop\Alana\UA\R_projects\inflatable-project\outputs\complete_lists\Older Adults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2EA0EF-6F5D-484F-82D6-F1EDF497E84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FF30A6-ABFC-4EE4-B314-BC464D07294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="690" windowWidth="21260" windowHeight="19790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5900" yWindow="1230" windowWidth="31280" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ten_lists" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -468,7 +467,7 @@
     <t>start SD</t>
   </si>
   <si>
-    <t>S010 OA</t>
+    <t>S009 OA</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1327,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1662,7 +1661,7 @@
         <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1812,7 +1811,7 @@
         <v>141</v>
       </c>
       <c r="K24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
